--- a/data/step2.xlsx
+++ b/data/step2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G145"/>
+  <dimension ref="A1:E145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,20 +451,10 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>First Stop ID</t>
+          <t>First Stop</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Last Stop ID</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>First Stop</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Last Stop</t>
         </is>
@@ -488,22 +478,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -525,22 +505,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -562,22 +532,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>VaLO</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Valley and Temple Layover</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -599,22 +559,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -636,22 +586,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>PTCLO</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>PTC Layover</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -673,22 +613,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PTCLO</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>PTC Layover</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -710,22 +640,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -747,22 +667,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PTCLO</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>PTC Layover</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -784,22 +694,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -821,22 +721,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -858,22 +748,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MTCLO</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>MTC Layover</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -895,22 +775,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -932,22 +802,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -969,22 +829,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>EMSLO</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>EMS Layover</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -1006,22 +856,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>EMSLO</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>EMS Layover</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -1043,22 +883,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -1080,22 +910,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>PTCLO</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>PTC Layover</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -1117,22 +937,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>PTCLO</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>PTC Layover</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -1154,22 +964,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -1191,22 +991,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -1228,22 +1018,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>PTCLO</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>PTC Layover</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -1265,22 +1045,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -1302,22 +1072,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>VaLO</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Valley and Temple Layover</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -1339,22 +1099,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -1376,22 +1126,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>PTCLO</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>PTC Layover</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -1413,22 +1153,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -1450,22 +1180,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -1487,22 +1207,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>PTCLO</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>PTC Layover</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -1524,22 +1234,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -1561,22 +1261,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -1598,22 +1288,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>MTCLO</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>MTC Layover</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -1635,22 +1315,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -1672,22 +1342,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>PTCLO</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>PTC Layover</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -1709,22 +1369,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -1746,22 +1396,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>VaLO</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Valley and Temple Layover</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -1783,22 +1423,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>VaLO</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Valley and Temple Layover</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -1820,22 +1450,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -1857,22 +1477,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -1894,22 +1504,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -1931,22 +1531,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -1968,22 +1558,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -2005,22 +1585,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -2042,22 +1612,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -2079,22 +1639,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -2116,22 +1666,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -2153,22 +1693,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -2190,22 +1720,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -2227,22 +1747,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -2264,22 +1774,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -2301,22 +1801,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -2338,22 +1828,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -2375,22 +1855,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -2412,22 +1882,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -2449,22 +1909,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -2486,22 +1936,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -2523,22 +1963,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -2560,22 +1990,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2017,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -2634,22 +2044,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>ToMa</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Towne and Marketplace</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -2671,22 +2071,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>MTCLO</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>MTC Layover</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -2708,22 +2098,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>EMSLO</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>EMS Layover</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -2745,22 +2125,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -2782,22 +2152,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>DuDs</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Durward and D St</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -2819,22 +2179,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>EMSLO</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>EMS Layover</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -2856,22 +2206,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>CiCLO</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>CiCo Layover</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -2893,22 +2233,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>PTCLO</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>PTC Layover</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -2930,22 +2260,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>EMSLO</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>EMS Layover</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -2967,22 +2287,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -3004,22 +2314,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -3041,22 +2341,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>VaLO</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>Valley and Temple Layover</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -3078,22 +2368,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>VaLO</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>Valley and Temple Layover</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -3115,22 +2395,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>PTCLO</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>PTC Layover</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -3152,22 +2422,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -3189,22 +2449,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>MTCLO</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>MTC Layover</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -3226,22 +2476,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>PHMLO</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>Puente Hills Mall Layover</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -3263,22 +2503,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>PTCLO</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>PTC Layover</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -3300,22 +2530,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>EMSLO</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>EMS Layover</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -3337,22 +2557,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>PTCLO</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>PTC Layover</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -3374,22 +2584,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>MTCLO</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>MTC Layover</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -3411,22 +2611,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -3448,22 +2638,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>PTCLO</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>PTC Layover</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -3485,22 +2665,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -3522,22 +2692,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -3559,22 +2719,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>EMSLO</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>EMS Layover</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -3596,22 +2746,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>PTCLO</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>PTC Layover</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -3633,22 +2773,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -3670,22 +2800,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -3707,22 +2827,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -3744,22 +2854,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>PTCLO</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>PTC Layover</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -3781,22 +2881,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>VaLO</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Valley and Temple Layover</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -3818,22 +2908,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>PTCLO</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>PTC Layover</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -3855,22 +2935,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>VaLO</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Valley and Temple Layover</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -3892,22 +2962,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>VaLO</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Valley and Temple Layover</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -3929,22 +2989,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>PTCLO</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>PTC Layover</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -3966,22 +3016,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>EMSLO</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>EMS Layover</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -4003,22 +3043,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>MTCLO</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>MTC Layover</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -4040,22 +3070,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -4077,22 +3097,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -4114,22 +3124,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>EMSLO</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>EMS Layover</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -4151,22 +3151,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>VaLO</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Valley and Temple Layover</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -4188,22 +3178,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -4225,22 +3205,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>PTCLO</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>PTC Layover</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -4262,22 +3232,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -4299,22 +3259,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>EMSLO</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>EMS Layover</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -4336,22 +3286,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -4373,22 +3313,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -4410,22 +3340,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>PTCLO</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>PTC Layover</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -4447,22 +3367,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>PHMLO</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Puente Hills Mall Layover</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -4484,22 +3394,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -4521,22 +3421,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -4558,22 +3448,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>ToMa</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>Towne and Marketplace</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -4595,22 +3475,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>DuDs</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>Durward and D St</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -4632,22 +3502,12 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>ToMa</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>Towne and Marketplace</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -4669,22 +3529,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -4706,22 +3556,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>DuDs</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>Durward and D St</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -4743,22 +3583,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>ToMa</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>Towne and Marketplace</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -4780,22 +3610,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>DuDs</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>Durward and D St</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -4817,22 +3637,12 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -4854,22 +3664,12 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>ToMa</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>Towne and Marketplace</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -4891,22 +3691,12 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -4928,22 +3718,12 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -4965,22 +3745,12 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -5002,22 +3772,12 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -5039,22 +3799,12 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>ToMa</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>Towne and Marketplace</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -5076,22 +3826,12 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -5113,22 +3853,12 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -5150,22 +3880,12 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -5187,22 +3907,12 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -5224,22 +3934,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -5261,22 +3961,12 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -5298,22 +3988,12 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -5335,22 +4015,12 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -5372,22 +4042,12 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -5409,22 +4069,12 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -5446,22 +4096,12 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -5483,22 +4123,12 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -5520,22 +4150,12 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -5557,22 +4177,12 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -5594,22 +4204,12 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -5631,22 +4231,12 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>ToMa</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Towne and Marketplace</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -5668,22 +4258,12 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>ToMa</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Towne and Marketplace</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -5705,22 +4285,12 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>ToMa</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Towne and Marketplace</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -5742,22 +4312,12 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>PTCLO</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>PTC Layover</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
@@ -5779,22 +4339,12 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>Pomona Yard</t>
+          <t>Unknown Stop</t>
         </is>
       </c>
     </row>
